--- a/ModelingV0/output/data/instance_5.xlsx
+++ b/ModelingV0/output/data/instance_5.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,12 +495,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['UE4']</t>
+          <t>['UE2']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['F1', 'MBS1', 'SBS1', 'UE4']</t>
+          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -528,12 +528,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['UE4']</t>
+          <t>['UE2']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['F1', 'MBS1', 'SBS1', 'UE4']</t>
+          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -551,27 +551,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['00000002_F1']</t>
+          <t>['00000002_F3']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F3']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['UE2']</t>
+          <t>['UE1']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
+          <t>['F3', 'SBS4', 'UE1']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>MBS1</t>
+          <t>SBS4</t>
         </is>
       </c>
     </row>
@@ -594,17 +594,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['UE4']</t>
+          <t>['UE2']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['F1', 'MBS2', 'SBS4', 'UE4']</t>
+          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>MBS2</t>
+          <t>MBS1</t>
         </is>
       </c>
     </row>
@@ -617,27 +617,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['00000002_F1']</t>
+          <t>['00000002_F3']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F3']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['UE2']</t>
+          <t>['UE1']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
+          <t>['F3', 'SBS4', 'UE1']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MBS1</t>
+          <t>SBS4</t>
         </is>
       </c>
     </row>
@@ -660,17 +660,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['UE1']</t>
+          <t>['UE3']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['F5', 'MBS2', 'SBS4', 'UE1']</t>
+          <t>['F5', 'SBS3', 'UE3']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>MBS2</t>
+          <t>SBS3</t>
         </is>
       </c>
     </row>
@@ -693,17 +693,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['UE4']</t>
+          <t>['UE2']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['F1', 'MBS2', 'SBS4', 'UE4']</t>
+          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MBS2</t>
+          <t>MBS1</t>
         </is>
       </c>
     </row>
@@ -716,27 +716,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['00000002_F1']</t>
+          <t>['00000002_F3']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F3']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['UE2']</t>
+          <t>['UE1']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
+          <t>['F3', 'MBS2', 'SBS3', 'UE1']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>MBS1</t>
+          <t>MBS2</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['UE1']</t>
+          <t>['UE3']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['F5', 'MBS2', 'SBS4', 'UE1']</t>
+          <t>['F5', 'SBS3', 'UE3']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>MBS2</t>
+          <t>SBS3</t>
         </is>
       </c>
     </row>
@@ -792,17 +792,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['UE2']</t>
+          <t>['UE1']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['F5', 'MBS1', 'SBS1', 'UE2']</t>
+          <t>['F5', 'SBS3', 'UE1']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>MBS1</t>
+          <t>SBS3</t>
         </is>
       </c>
     </row>
@@ -825,17 +825,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['UE4']</t>
+          <t>['UE2']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['F1', 'MBS2', 'SBS4', 'UE4']</t>
+          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>MBS2</t>
+          <t>MBS1</t>
         </is>
       </c>
     </row>
@@ -848,27 +848,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['00000002_F1']</t>
+          <t>['00000002_F3']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['F1']</t>
+          <t>['F3']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['UE2']</t>
+          <t>['UE1']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
+          <t>['F3', 'MBS2', 'SBS3', 'UE1']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>MBS1</t>
+          <t>MBS2</t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['UE1']</t>
+          <t>['UE3']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['F5', 'MBS2', 'SBS4', 'UE1']</t>
+          <t>['F5', 'SBS3', 'UE3']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>MBS2</t>
+          <t>SBS3</t>
         </is>
       </c>
     </row>
@@ -924,17 +924,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['UE2']</t>
+          <t>['UE1']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['F5', 'MBS1', 'SBS1', 'UE2']</t>
+          <t>['F5', 'SBS3', 'UE1']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>MBS1</t>
+          <t>SBS3</t>
         </is>
       </c>
     </row>
@@ -947,27 +947,1347 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['00000005_F3']</t>
+          <t>['00000005_F1']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['UE4']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['F1', 'MBS1', 'SBS1', 'UE4']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['00000001_F1']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['UE2']</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['00000002_F3']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>['F3']</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['UE1']</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['F3', 'MBS2', 'SBS3', 'UE1']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>MBS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['00000003_F5']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['UE3']</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['F5', 'SBS3', 'UE3']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['00000004_F5']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['UE1']</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['F5', 'SBS3', 'UE1']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['00000005_F1']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['UE4']</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>['F1', 'MBS1', 'SBS1', 'UE4']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['00000006_F1']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['UE3']</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>['F1', 'SBS3', 'UE3']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['00000001_F1']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>['UE2']</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>['F3', 'MBS1', 'SBS1', 'UE2']</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['00000002_F3']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['F3']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>['UE1']</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>['F3', 'MBS2', 'SBS3', 'UE1']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>MBS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['00000003_F5']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>['UE3']</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>['F5', 'SBS3', 'UE3']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['00000004_F5']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>['UE1']</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>['F5', 'SBS3', 'UE1']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['00000005_F1']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>['UE4']</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>['F1', 'SBS4', 'UE4']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>SBS4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['00000006_F1']</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>['UE3']</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>['F1', 'SBS3', 'UE3']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['00000007_F3']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['F3']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>['UE4']</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>['F3', 'SBS1', 'UE4']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>SBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['00000001_F1']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>['UE2']</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['00000002_F3']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['F3']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>['UE1']</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>['F3', 'SBS4', 'UE1']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>SBS4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['00000003_F5']</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>['UE3']</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>['F5', 'SBS3', 'UE3']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['00000004_F5']</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>['UE1']</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>['F5', 'SBS3', 'UE1']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['00000005_F1']</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>['UE4']</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>['F1', 'MBS1', 'SBS1', 'UE4']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['00000006_F1']</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>['UE3']</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['F1', 'SBS3', 'UE3']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>['00000007_F3']</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['F3']</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>['UE4']</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>['F3', 'SBS1', 'UE4']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>SBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['00000008_F5']</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>['UE2']</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>['F5', 'MBS1', 'SBS1', 'UE2']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>['00000001_F1']</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>['UE2']</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['00000002_F3']</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['F3']</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>['UE1']</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>['F3', 'SBS4', 'UE1']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>SBS4</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['00000003_F5']</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>['UE3']</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>['F5', 'SBS3', 'UE3']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['00000004_F5']</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>['UE1']</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>['F5', 'SBS3', 'UE1']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['00000005_F1']</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['UE4']</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['F1', 'MBS1', 'SBS1', 'UE4']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['00000006_F1']</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['UE3']</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>['F1', 'SBS3', 'UE3']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['00000007_F3']</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['F3']</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['UE4']</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>['F3', 'SBS1', 'UE4']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>SBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['00000008_F5']</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['UE2']</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['F5', 'MBS1', 'SBS1', 'UE2']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['00000009_F5']</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['UE4']</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['F5', 'MBS1', 'SBS1', 'UE4']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>['00000001_F1']</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['UE2']</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['F1', 'MBS1', 'SBS1', 'UE2']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['00000002_F3']</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['F3']</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>['UE1']</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['F3', 'SBS4', 'UE1']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>SBS4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['00000003_F5']</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['UE3']</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['F5', 'SBS3', 'UE3']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>['00000004_F5']</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>['UE1']</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>['F5', 'SBS3', 'UE1']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['00000005_F1']</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['UE4']</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>['F1', 'MBS1', 'SBS1', 'UE4']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['00000006_F1']</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>['F1']</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>['UE3']</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['F1', 'SBS3', 'UE3']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>['00000007_F3']</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>['F3']</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>['UE4']</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['F3', 'SBS1', 'UE4']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>SBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>['00000008_F5']</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>['UE2']</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['F5', 'MBS1', 'SBS1', 'UE2']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>['00000009_F5']</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>['F5']</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>['UE4']</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['F5', 'MBS1', 'SBS1', 'UE4']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>['00000010_F3']</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>['F3']</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['UE2']</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['F3', 'SBS1', 'UE2']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>SBS1</t>
         </is>
       </c>
     </row>
@@ -982,7 +2302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,6 +2354,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1048,7 +2408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,7 +2439,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>F3</t>
         </is>
       </c>
     </row>
@@ -1108,6 +2468,56 @@
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>F3</t>
         </is>
@@ -1124,7 +2534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1170,7 +2580,7 @@
         <v>0.0028</v>
       </c>
       <c r="E2" t="n">
-        <v>11428571</v>
+        <v>17143</v>
       </c>
     </row>
     <row r="3">
@@ -1189,7 +2599,7 @@
         <v>0.0027</v>
       </c>
       <c r="E3" t="n">
-        <v>11851852</v>
+        <v>17778</v>
       </c>
     </row>
     <row r="4">
@@ -1208,7 +2618,7 @@
         <v>0.004</v>
       </c>
       <c r="E4" t="n">
-        <v>8000000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="5">
@@ -1227,7 +2637,7 @@
         <v>0.0029</v>
       </c>
       <c r="E5" t="n">
-        <v>11034483</v>
+        <v>16552</v>
       </c>
     </row>
     <row r="6">
@@ -1246,7 +2656,7 @@
         <v>0.0035</v>
       </c>
       <c r="E6" t="n">
-        <v>9142857</v>
+        <v>13714</v>
       </c>
     </row>
     <row r="7">
@@ -1265,7 +2675,7 @@
         <v>0.0028</v>
       </c>
       <c r="E7" t="n">
-        <v>11428571</v>
+        <v>17143</v>
       </c>
     </row>
     <row r="8">
@@ -1284,7 +2694,7 @@
         <v>0.0025</v>
       </c>
       <c r="E8" t="n">
-        <v>12800000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +2710,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.004</v>
+        <v>0.0028</v>
       </c>
       <c r="E9" t="n">
-        <v>8000000</v>
+        <v>17143</v>
       </c>
     </row>
     <row r="10">
@@ -1319,10 +2729,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0027</v>
+        <v>0.0036</v>
       </c>
       <c r="E10" t="n">
-        <v>11851852</v>
+        <v>13333</v>
       </c>
     </row>
     <row r="11">
@@ -1334,14 +2744,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE3')</t>
+          <t>('SBS3', 'UE1')</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0041</v>
+        <v>0.004</v>
       </c>
       <c r="E11" t="n">
-        <v>7804878</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="12">
@@ -1353,14 +2763,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE1')</t>
+          <t>('SBS3', 'UE3')</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0035</v>
+        <v>0.0041</v>
       </c>
       <c r="E12" t="n">
-        <v>9142857</v>
+        <v>11707</v>
       </c>
     </row>
     <row r="13">
@@ -1372,14 +2782,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE4')</t>
+          <t>('SBS4', 'UE1')</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.0028</v>
+        <v>0.002</v>
       </c>
       <c r="E13" t="n">
-        <v>11428571</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="14">
@@ -1391,14 +2801,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE5')</t>
+          <t>('SBS4', 'UE4')</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.0025</v>
+        <v>0.0028</v>
       </c>
       <c r="E14" t="n">
-        <v>12800000</v>
+        <v>17143</v>
       </c>
     </row>
     <row r="15">
@@ -1406,18 +2816,18 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE2')</t>
+          <t>('SBS4', 'UE5')</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.004</v>
+        <v>0.0031</v>
       </c>
       <c r="E15" t="n">
-        <v>8000000</v>
+        <v>15484</v>
       </c>
     </row>
     <row r="16">
@@ -1429,14 +2839,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE4')</t>
+          <t>('SBS1', 'UE2')</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.0036</v>
+        <v>0.002</v>
       </c>
       <c r="E16" t="n">
-        <v>8888889</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="17">
@@ -1448,14 +2858,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE3')</t>
+          <t>('SBS1', 'UE4')</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0029</v>
+        <v>0.0027</v>
       </c>
       <c r="E17" t="n">
-        <v>11034483</v>
+        <v>17778</v>
       </c>
     </row>
     <row r="18">
@@ -1467,14 +2877,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE1')</t>
+          <t>('SBS3', 'UE1')</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.0061</v>
+        <v>0.002</v>
       </c>
       <c r="E18" t="n">
-        <v>5245902</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="19">
@@ -1486,14 +2896,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE4')</t>
+          <t>('SBS3', 'UE3')</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.002</v>
+        <v>0.0029</v>
       </c>
       <c r="E19" t="n">
-        <v>16000000</v>
+        <v>16552</v>
       </c>
     </row>
     <row r="20">
@@ -1505,14 +2915,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE5')</t>
+          <t>('SBS4', 'UE1')</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.0031</v>
+        <v>0.0035</v>
       </c>
       <c r="E20" t="n">
-        <v>10322581</v>
+        <v>13714</v>
       </c>
     </row>
     <row r="21">
@@ -1520,18 +2930,18 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE2')</t>
+          <t>('SBS4', 'UE4')</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0028</v>
+        <v>0.0039</v>
       </c>
       <c r="E21" t="n">
-        <v>11428571</v>
+        <v>12308</v>
       </c>
     </row>
     <row r="22">
@@ -1539,18 +2949,18 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE4')</t>
+          <t>('SBS4', 'UE5')</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.0048</v>
+        <v>0.0031</v>
       </c>
       <c r="E22" t="n">
-        <v>6666667</v>
+        <v>15484</v>
       </c>
     </row>
     <row r="23">
@@ -1562,14 +2972,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE3')</t>
+          <t>('SBS1', 'UE2')</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.002</v>
+        <v>0.0028</v>
       </c>
       <c r="E23" t="n">
-        <v>16000000</v>
+        <v>17143</v>
       </c>
     </row>
     <row r="24">
@@ -1581,14 +2991,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE1')</t>
+          <t>('SBS1', 'UE4')</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.0105</v>
+        <v>0.002</v>
       </c>
       <c r="E24" t="n">
-        <v>3047619</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="25">
@@ -1600,14 +3010,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE4')</t>
+          <t>('SBS3', 'UE1')</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.0028</v>
+        <v>0.002</v>
       </c>
       <c r="E25" t="n">
-        <v>11428571</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="26">
@@ -1619,14 +3029,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE5')</t>
+          <t>('SBS3', 'UE3')</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.0025</v>
+        <v>0.0041</v>
       </c>
       <c r="E26" t="n">
-        <v>12800000</v>
+        <v>11707</v>
       </c>
     </row>
     <row r="27">
@@ -1634,18 +3044,18 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE2')</t>
+          <t>('SBS4', 'UE1')</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.002</v>
+        <v>0.0061</v>
       </c>
       <c r="E27" t="n">
-        <v>16000000</v>
+        <v>7869</v>
       </c>
     </row>
     <row r="28">
@@ -1653,18 +3063,18 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE4')</t>
+          <t>('SBS4', 'UE4')</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.0064</v>
+        <v>0.0039</v>
       </c>
       <c r="E28" t="n">
-        <v>5000000</v>
+        <v>12308</v>
       </c>
     </row>
     <row r="29">
@@ -1672,18 +3082,18 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>('SBS3', 'UE3')</t>
+          <t>('SBS4', 'UE5')</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.0014</v>
+        <v>0.0031</v>
       </c>
       <c r="E29" t="n">
-        <v>22857143</v>
+        <v>15484</v>
       </c>
     </row>
     <row r="30">
@@ -1695,14 +3105,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE1')</t>
+          <t>('SBS1', 'UE2')</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.0182</v>
+        <v>0.002</v>
       </c>
       <c r="E30" t="n">
-        <v>1758242</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="31">
@@ -1714,14 +3124,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE4')</t>
+          <t>('SBS1', 'UE4')</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.002</v>
+        <v>0.0027</v>
       </c>
       <c r="E31" t="n">
-        <v>16000000</v>
+        <v>17778</v>
       </c>
     </row>
     <row r="32">
@@ -1733,14 +3143,755 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE5')</t>
+          <t>('SBS3', 'UE1')</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0.002</v>
       </c>
       <c r="E32" t="n">
-        <v>16000000</v>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE3')</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8136</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13714</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8889</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE5')</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="E36" t="n">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE2')</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="E37" t="n">
+        <v>17143</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="E38" t="n">
+        <v>17778</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E39" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE3')</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="E40" t="n">
+        <v>8136</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7869</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="E42" t="n">
+        <v>8889</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE5')</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="E43" t="n">
+        <v>15484</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE2')</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E44" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="E45" t="n">
+        <v>17778</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="E46" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE3')</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8136</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7869</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="E49" t="n">
+        <v>12308</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE5')</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="E50" t="n">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE2')</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8421</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="E52" t="n">
+        <v>13333</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E53" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE3')</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="E54" t="n">
+        <v>11707</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="E55" t="n">
+        <v>13714</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="E56" t="n">
+        <v>8889</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE5')</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="E57" t="n">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>9</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE2')</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E60" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE3')</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8136</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>9</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E62" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>9</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>9</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE5')</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="E64" t="n">
+        <v>15484</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>10</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE2')</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8421</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13333</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>10</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E67" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE3')</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="E68" t="n">
+        <v>8136</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>10</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="E69" t="n">
+        <v>13714</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>10</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>10</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE5')</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="E71" t="n">
+        <v>15484</v>
       </c>
     </row>
   </sheetData>
@@ -1787,10 +3938,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +3955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1858,7 +4009,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1970,7 +4121,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2050,7 +4201,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2082,7 +4233,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.1176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2098,7 +4249,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2146,7 +4297,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2162,7 +4313,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2194,7 +4345,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2210,7 +4361,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.2353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2258,7 +4409,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2306,7 +4457,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.3529</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2322,7 +4473,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.2353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2370,7 +4521,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2387,6 +4538,566 @@
       </c>
       <c r="D36" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MBS0</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MBS2</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SBS1</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SBS2</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SBS4</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MBS0</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MBS2</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SBS1</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SBS2</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SBS4</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MBS0</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MBS2</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SBS1</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SBS2</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SBS4</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>9</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MBS0</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MBS2</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SBS1</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>9</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SBS2</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>9</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>9</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SBS4</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>10</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MBS0</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MBS1</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>10</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MBS2</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SBS1</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>10</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SBS2</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>10</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SBS3</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>10</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SBS4</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2400,7 +5111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2472,13 +5183,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="5">
@@ -2513,6 +5224,91 @@
       </c>
       <c r="E6" t="n">
         <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.07142857142857142</v>
       </c>
     </row>
   </sheetData>
@@ -2526,7 +5322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2584,10 +5380,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="4">
@@ -2601,10 +5397,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="5">
@@ -2618,10 +5414,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="6">
@@ -2632,13 +5428,98 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7142857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -2652,7 +5533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2690,7 +5571,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2706,7 +5587,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2722,7 +5603,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2730,15 +5611,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>('MBS2', 'SBS4')</t>
+          <t>('MBS1', 'SBS1')</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2750,11 +5631,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('MBS1', 'SBS1')</t>
+          <t>('MBS2', 'SBS3')</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2762,15 +5643,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>('MBS2', 'SBS4')</t>
+          <t>('MBS1', 'SBS1')</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -2782,11 +5663,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>('MBS1', 'SBS1')</t>
+          <t>('MBS2', 'SBS3')</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>135</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2794,15 +5675,111 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('MBS2', 'SBS4')</t>
+          <t>('MBS1', 'SBS1')</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>90</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>('MBS2', 'SBS3')</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>('MBS1', 'SBS1')</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>('MBS2', 'SBS3')</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>('MBS1', 'SBS1')</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>('MBS1', 'SBS1')</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>('MBS1', 'SBS1')</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2816,7 +5793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2850,11 +5827,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE4')</t>
+          <t>('SBS1', 'UE2')</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2870,7 +5847,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2882,11 +5859,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>('SBS1', 'UE4')</t>
+          <t>('SBS4', 'UE1')</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2902,7 +5879,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2914,11 +5891,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE1')</t>
+          <t>('SBS3', 'UE3')</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2930,11 +5907,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE4')</t>
+          <t>('SBS4', 'UE1')</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2950,7 +5927,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2962,11 +5939,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE1')</t>
+          <t>('SBS3', 'UE1')</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -2978,11 +5955,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE4')</t>
+          <t>('SBS3', 'UE3')</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2998,7 +5975,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>135</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -3010,11 +5987,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>('SBS4', 'UE1')</t>
+          <t>('SBS1', 'UE4')</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -3026,11 +6003,411 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>('SBS3', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE3')</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE2')</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE3')</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE2')</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE3')</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>('SBS4', 'UE4')</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>45</v>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE2')</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE3')</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE2')</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE3')</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE2')</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>('SBS1', 'UE4')</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>('SBS3', 'UE3')</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>('SBS4', 'UE1')</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3044,7 +6421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3089,11 +6466,7 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['00000001_F1']</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3102,7 +6475,11 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['00000002_F3']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3112,6 +6489,72 @@
         <v>5</v>
       </c>
       <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['00000005_F1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['00000002_F3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['00000005_F1']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3124,7 +6567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3169,11 +6612,7 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>00000001_F1</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3182,7 +6621,11 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>00000002_F3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -3192,6 +6635,72 @@
         <v>5</v>
       </c>
       <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>00000005_F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>00000002_F3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>00000005_F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
